--- a/SuppXLS/Scen_UC_Coal_MaxCAP.xlsx
+++ b/SuppXLS/Scen_UC_Coal_MaxCAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_012\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evelyn/Documents/GitHub/Demo_S012_Vonline/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7B263C-5335-4560-B795-5FB3F135C2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D0008-F917-3D46-BC75-C5DD3E9DE5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_Coal_MaxCap" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -179,7 +179,7 @@
   </borders>
   <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -209,15 +209,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -691,97 +691,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -805,42 +753,35 @@
       <c r="J5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>2015</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>89.372771062763022</v>
       </c>
-      <c r="H6" s="2">
-        <v>48.12379980302623</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="9">
+        <v>200</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
